--- a/BEM_Hypothesis.xlsx
+++ b/BEM_Hypothesis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\04_BEM\E+_Office_Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543207CD-04BF-4BD9-97F9-AB7C740F1774}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786AED81-BE00-4D23-B234-4F7C281821C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="600" windowWidth="21165" windowHeight="15600" firstSheet="2" activeTab="2" xr2:uid="{65AFDB44-F0B5-471D-BCAC-A3541777CAD5}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="13980" windowHeight="13155" firstSheet="2" activeTab="3" xr2:uid="{65AFDB44-F0B5-471D-BCAC-A3541777CAD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Site" sheetId="10" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="755">
   <si>
     <t>Glazing</t>
   </si>
@@ -1891,18 +1891,9 @@
     <t>W/pers</t>
   </si>
   <si>
-    <t>pd.set_option('precision', 0) : sans les années avec une décimale et aussi comment adapter à chaque cellule</t>
-  </si>
-  <si>
-    <t>PYTHON</t>
-  </si>
-  <si>
     <t>PAT sur Github &gt; supprimer?</t>
   </si>
   <si>
-    <t>Comment éviter d'avoir un tracé lorsque des points sont manquants ? Cf graph ratio import en FR.</t>
-  </si>
-  <si>
     <t>HEAT PUMP</t>
   </si>
   <si>
@@ -1916,15 +1907,6 @@
   </si>
   <si>
     <t>https://energieplus-lesite.be/ameliorer/ventilation11/placer-un-recuperateur-de-chaleur-d1/</t>
-  </si>
-  <si>
-    <t>Comment écrire un path lorsqu'il est trop long / à la limite de caractères ?</t>
-  </si>
-  <si>
-    <t>Comment gérer les fonctions ? Un .py en parallèle ?</t>
-  </si>
-  <si>
-    <t>Problème d'export en pdf</t>
   </si>
   <si>
     <t>Equipments / Full</t>
@@ -2227,54 +2209,6 @@
     <t>use refrigerant as the cooling and heating medium. This refrigerant is conditioned by a single or multiple condensing units (which may be outdoors or indoors, water or air cooled), and is circulated within the building to multiple indoor units.</t>
   </si>
   <si>
-    <t>1A0</t>
-  </si>
-  <si>
-    <t>1B0</t>
-  </si>
-  <si>
-    <t>0A0</t>
-  </si>
-  <si>
-    <t>2A0</t>
-  </si>
-  <si>
-    <t>2B0</t>
-  </si>
-  <si>
-    <t>2C0</t>
-  </si>
-  <si>
-    <t>2D0</t>
-  </si>
-  <si>
-    <t>2F0</t>
-  </si>
-  <si>
-    <t>2E0</t>
-  </si>
-  <si>
-    <t>0B0</t>
-  </si>
-  <si>
-    <t>3A0</t>
-  </si>
-  <si>
-    <t>3B0</t>
-  </si>
-  <si>
-    <t>3C0</t>
-  </si>
-  <si>
-    <t>3D0</t>
-  </si>
-  <si>
-    <t>3E0</t>
-  </si>
-  <si>
-    <t>3F0</t>
-  </si>
-  <si>
     <t>1AT</t>
   </si>
   <si>
@@ -2414,6 +2348,69 @@
   </si>
   <si>
     <t>6 triple glazing</t>
+  </si>
+  <si>
+    <t>refrigerating machine + cop + contorl deck temperature</t>
+  </si>
+  <si>
+    <t>Deck temperature</t>
+  </si>
+  <si>
+    <t>Smart Glazing</t>
+  </si>
+  <si>
+    <t>sgA0</t>
+  </si>
+  <si>
+    <t>DG</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>0A</t>
+  </si>
+  <si>
+    <t>0B</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>2C</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>2E</t>
+  </si>
+  <si>
+    <t>2F</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>3E</t>
+  </si>
+  <si>
+    <t>3F</t>
   </si>
 </sst>
 </file>
@@ -2608,7 +2605,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3047,6 +3044,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3112,15 +3121,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3649,10 +3649,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="184" t="s">
+      <c r="B4" s="188" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="184"/>
+      <c r="C4" s="188"/>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="43" t="s">
@@ -3663,10 +3663,10 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="184" t="s">
+      <c r="B8" s="188" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="184"/>
+      <c r="C8" s="188"/>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="43" t="s">
@@ -3691,10 +3691,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="49"/>
-      <c r="B16" s="185" t="s">
+      <c r="B16" s="189" t="s">
         <v>162</v>
       </c>
-      <c r="C16" s="185"/>
+      <c r="C16" s="189"/>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="43" t="s">
@@ -3702,10 +3702,10 @@
       </c>
     </row>
     <row r="20" spans="2:3" ht="138" customHeight="1">
-      <c r="B20" s="186" t="s">
+      <c r="B20" s="190" t="s">
         <v>178</v>
       </c>
-      <c r="C20" s="186"/>
+      <c r="C20" s="190"/>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="50" t="s">
@@ -3781,10 +3781,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="49"/>
-      <c r="B33" s="185" t="s">
+      <c r="B33" s="189" t="s">
         <v>160</v>
       </c>
-      <c r="C33" s="185"/>
+      <c r="C33" s="189"/>
     </row>
     <row r="34" spans="1:3">
       <c r="C34" s="48" t="s">
@@ -3842,10 +3842,10 @@
       <c r="F3" s="74"/>
     </row>
     <row r="4" spans="2:6" s="43" customFormat="1">
-      <c r="B4" s="192" t="s">
+      <c r="B4" s="196" t="s">
         <v>489</v>
       </c>
-      <c r="C4" s="192"/>
+      <c r="C4" s="196"/>
       <c r="D4" s="68"/>
       <c r="E4" s="61"/>
       <c r="F4" s="52"/>
@@ -3935,10 +3935,10 @@
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="192" t="s">
+      <c r="B15" s="196" t="s">
         <v>498</v>
       </c>
-      <c r="C15" s="192"/>
+      <c r="C15" s="196"/>
       <c r="D15" s="68"/>
       <c r="E15" s="61"/>
       <c r="F15" s="52"/>
@@ -4225,8 +4225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8068AA-70EE-4706-9949-0A2EC7DD63FE}">
   <dimension ref="A1:P136"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O53" sqref="O53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4243,7 +4243,8 @@
     <col min="13" max="13" width="14.42578125" style="86" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.7109375" style="86" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="42.42578125" style="86" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="20.42578125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="42" customFormat="1">
@@ -4277,30 +4278,30 @@
       <c r="G3" s="2"/>
       <c r="H3" s="87"/>
       <c r="I3" s="1"/>
-      <c r="L3" s="200" t="s">
+      <c r="L3" s="204" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="200"/>
-      <c r="N3" s="200"/>
-      <c r="O3" s="200"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" s="43" customFormat="1">
       <c r="A4" s="59"/>
-      <c r="B4" s="184" t="s">
+      <c r="B4" s="188" t="s">
         <v>518</v>
       </c>
-      <c r="C4" s="184"/>
+      <c r="C4" s="188"/>
       <c r="D4" s="68"/>
       <c r="E4" s="61"/>
       <c r="F4" s="85"/>
       <c r="G4" s="2"/>
       <c r="H4" s="87"/>
       <c r="I4" s="1"/>
-      <c r="L4" s="201">
+      <c r="L4" s="205">
         <v>3</v>
       </c>
-      <c r="M4" s="199" t="s">
+      <c r="M4" s="203" t="s">
         <v>535</v>
       </c>
       <c r="N4" s="89" t="s">
@@ -4325,8 +4326,11 @@
         <v>24</v>
       </c>
       <c r="H5" s="87"/>
-      <c r="L5" s="202"/>
-      <c r="M5" s="204"/>
+      <c r="K5" s="187" t="s">
+        <v>683</v>
+      </c>
+      <c r="L5" s="206"/>
+      <c r="M5" s="208"/>
       <c r="N5" s="100" t="s">
         <v>533</v>
       </c>
@@ -4350,12 +4354,12 @@
       <c r="E6" s="2">
         <v>21</v>
       </c>
-      <c r="H6" s="195" t="s">
+      <c r="H6" s="199" t="s">
         <v>537</v>
       </c>
-      <c r="I6" s="195"/>
-      <c r="L6" s="203"/>
-      <c r="M6" s="198"/>
+      <c r="I6" s="199"/>
+      <c r="L6" s="207"/>
+      <c r="M6" s="202"/>
       <c r="N6" s="88" t="s">
         <v>534</v>
       </c>
@@ -4377,10 +4381,10 @@
       <c r="I7" s="102" t="s">
         <v>538</v>
       </c>
-      <c r="L7" s="201">
+      <c r="L7" s="205">
         <v>2</v>
       </c>
-      <c r="M7" s="199" t="s">
+      <c r="M7" s="203" t="s">
         <v>529</v>
       </c>
       <c r="N7" s="89" t="s">
@@ -4399,8 +4403,8 @@
       <c r="I8" s="103" t="s">
         <v>542</v>
       </c>
-      <c r="L8" s="202"/>
-      <c r="M8" s="204"/>
+      <c r="L8" s="206"/>
+      <c r="M8" s="208"/>
       <c r="N8" s="100" t="s">
         <v>525</v>
       </c>
@@ -4422,13 +4426,13 @@
       <c r="I9" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="L9" s="203"/>
-      <c r="M9" s="198"/>
+      <c r="L9" s="207"/>
+      <c r="M9" s="202"/>
       <c r="N9" s="88" t="s">
         <v>524</v>
       </c>
       <c r="O9" s="88" t="s">
-        <v>551</v>
+        <v>734</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1">
@@ -4445,10 +4449,10 @@
       <c r="H10" s="97" t="s">
         <v>540</v>
       </c>
-      <c r="L10" s="201">
+      <c r="L10" s="205">
         <v>1</v>
       </c>
-      <c r="M10" s="199" t="s">
+      <c r="M10" s="203" t="s">
         <v>530</v>
       </c>
       <c r="N10" s="89" t="s">
@@ -4465,8 +4469,8 @@
       <c r="H11" s="97" t="s">
         <v>554</v>
       </c>
-      <c r="L11" s="202"/>
-      <c r="M11" s="204"/>
+      <c r="L11" s="206"/>
+      <c r="M11" s="208"/>
       <c r="N11" s="100" t="s">
         <v>525</v>
       </c>
@@ -4481,13 +4485,16 @@
       <c r="H12" s="97" t="s">
         <v>539</v>
       </c>
-      <c r="L12" s="203"/>
-      <c r="M12" s="198"/>
+      <c r="L12" s="207"/>
+      <c r="M12" s="202"/>
       <c r="N12" s="88" t="s">
         <v>524</v>
       </c>
       <c r="O12" s="88" t="s">
         <v>551</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -4513,12 +4520,12 @@
       <c r="E15" s="98"/>
       <c r="F15" s="98"/>
       <c r="H15" s="87"/>
-      <c r="L15" s="200" t="s">
+      <c r="L15" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="M15" s="200"/>
-      <c r="N15" s="200"/>
-      <c r="O15" s="200"/>
+      <c r="M15" s="204"/>
+      <c r="N15" s="204"/>
+      <c r="O15" s="204"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" s="90"/>
@@ -4553,20 +4560,20 @@
       <c r="F19" s="87"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="207" t="s">
-        <v>726</v>
-      </c>
-      <c r="B20" s="195" t="s">
-        <v>753</v>
-      </c>
-      <c r="C20" s="195"/>
-      <c r="D20" s="195"/>
-      <c r="E20" s="195"/>
-      <c r="F20" s="195"/>
-      <c r="H20" s="195" t="s">
+      <c r="A20" s="185" t="s">
+        <v>704</v>
+      </c>
+      <c r="B20" s="199" t="s">
+        <v>731</v>
+      </c>
+      <c r="C20" s="199"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="199"/>
+      <c r="F20" s="199"/>
+      <c r="H20" s="199" t="s">
         <v>80</v>
       </c>
-      <c r="I20" s="195"/>
+      <c r="I20" s="199"/>
     </row>
     <row r="21" spans="1:15">
       <c r="B21" s="19" t="s">
@@ -4580,12 +4587,12 @@
       <c r="H21" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="L21" s="200" t="s">
+      <c r="L21" s="204" t="s">
         <v>513</v>
       </c>
-      <c r="M21" s="200"/>
-      <c r="N21" s="200"/>
-      <c r="O21" s="200"/>
+      <c r="M21" s="204"/>
+      <c r="N21" s="204"/>
+      <c r="O21" s="204"/>
     </row>
     <row r="22" spans="1:15">
       <c r="B22" s="19" t="s">
@@ -4602,16 +4609,16 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="180" t="s">
-        <v>729</v>
+        <v>707</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>72</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>727</v>
-      </c>
-      <c r="D23" s="208" t="s">
-        <v>728</v>
+        <v>705</v>
+      </c>
+      <c r="D23" s="186" t="s">
+        <v>706</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -4624,7 +4631,7 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="180" t="s">
-        <v>731</v>
+        <v>709</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="35" t="s">
@@ -4641,7 +4648,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="180" t="s">
-        <v>730</v>
+        <v>708</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="35" t="s">
@@ -4658,11 +4665,11 @@
     </row>
     <row r="26" spans="1:15" ht="15" customHeight="1">
       <c r="A26" s="180" t="s">
-        <v>732</v>
+        <v>710</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="35" t="s">
-        <v>754</v>
+        <v>732</v>
       </c>
       <c r="D26" s="38" t="s">
         <v>124</v>
@@ -4677,11 +4684,11 @@
     </row>
     <row r="27" spans="1:15" ht="15" customHeight="1">
       <c r="A27" s="180" t="s">
-        <v>733</v>
+        <v>711</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="38" t="s">
-        <v>755</v>
+        <v>733</v>
       </c>
       <c r="D27" s="38" t="s">
         <v>124</v>
@@ -4746,13 +4753,13 @@
       <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="B32" s="195" t="s">
+      <c r="B32" s="199" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="195"/>
-      <c r="D32" s="195"/>
-      <c r="E32" s="195"/>
-      <c r="F32" s="195"/>
+      <c r="C32" s="199"/>
+      <c r="D32" s="199"/>
+      <c r="E32" s="199"/>
+      <c r="F32" s="199"/>
     </row>
     <row r="33" spans="1:11">
       <c r="B33" s="19" t="s">
@@ -4776,7 +4783,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="180" t="s">
-        <v>734</v>
+        <v>712</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>72</v>
@@ -4792,7 +4799,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="180" t="s">
-        <v>735</v>
+        <v>713</v>
       </c>
       <c r="B36" s="19"/>
       <c r="C36" s="11" t="s">
@@ -4806,7 +4813,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="180" t="s">
-        <v>736</v>
+        <v>714</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="11" t="s">
@@ -4820,7 +4827,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="180" t="s">
-        <v>737</v>
+        <v>715</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="11" t="s">
@@ -4834,7 +4841,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="180" t="s">
-        <v>738</v>
+        <v>716</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11" t="s">
@@ -4895,13 +4902,13 @@
       <c r="F43" s="11"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="B44" s="195" t="s">
+      <c r="B44" s="199" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="195"/>
-      <c r="D44" s="195"/>
-      <c r="E44" s="195"/>
-      <c r="F44" s="195"/>
+      <c r="C44" s="199"/>
+      <c r="D44" s="199"/>
+      <c r="E44" s="199"/>
+      <c r="F44" s="199"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:11">
@@ -4928,7 +4935,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="180" t="s">
-        <v>739</v>
+        <v>717</v>
       </c>
       <c r="B47" s="19" t="s">
         <v>72</v>
@@ -4947,7 +4954,7 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="180" t="s">
-        <v>740</v>
+        <v>718</v>
       </c>
       <c r="B48" s="19"/>
       <c r="C48" s="36" t="s">
@@ -4965,7 +4972,7 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="180" t="s">
-        <v>741</v>
+        <v>719</v>
       </c>
       <c r="B49" s="19"/>
       <c r="C49" s="11" t="s">
@@ -4982,7 +4989,7 @@
     </row>
     <row r="50" spans="1:13" ht="15" customHeight="1">
       <c r="A50" s="180" t="s">
-        <v>742</v>
+        <v>720</v>
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="11" t="s">
@@ -4994,17 +5001,17 @@
       <c r="E50" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="F50" s="196"/>
-      <c r="G50" s="196"/>
-      <c r="H50" s="196"/>
-      <c r="J50" s="196"/>
-      <c r="K50" s="196"/>
-      <c r="L50" s="196"/>
-      <c r="M50" s="196"/>
+      <c r="F50" s="200"/>
+      <c r="G50" s="200"/>
+      <c r="H50" s="200"/>
+      <c r="J50" s="200"/>
+      <c r="K50" s="200"/>
+      <c r="L50" s="200"/>
+      <c r="M50" s="200"/>
     </row>
     <row r="51" spans="1:13" ht="15" customHeight="1">
       <c r="A51" s="180" t="s">
-        <v>743</v>
+        <v>721</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="11" t="s">
@@ -5016,13 +5023,13 @@
       <c r="E51" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="F51" s="196"/>
-      <c r="G51" s="196"/>
-      <c r="H51" s="196"/>
-      <c r="J51" s="196"/>
-      <c r="K51" s="196"/>
-      <c r="L51" s="196"/>
-      <c r="M51" s="196"/>
+      <c r="F51" s="200"/>
+      <c r="G51" s="200"/>
+      <c r="H51" s="200"/>
+      <c r="J51" s="200"/>
+      <c r="K51" s="200"/>
+      <c r="L51" s="200"/>
+      <c r="M51" s="200"/>
     </row>
     <row r="52" spans="1:13">
       <c r="B52" s="19" t="s">
@@ -5081,13 +5088,13 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:13">
-      <c r="B57" s="195" t="s">
+      <c r="B57" s="199" t="s">
         <v>92</v>
       </c>
-      <c r="C57" s="195"/>
-      <c r="D57" s="195"/>
-      <c r="E57" s="195"/>
-      <c r="F57" s="195"/>
+      <c r="C57" s="199"/>
+      <c r="D57" s="199"/>
+      <c r="E57" s="199"/>
+      <c r="F57" s="199"/>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:13">
@@ -5128,7 +5135,7 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="180" t="s">
-        <v>744</v>
+        <v>722</v>
       </c>
       <c r="B60" s="19" t="s">
         <v>72</v>
@@ -5147,7 +5154,7 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="180" t="s">
-        <v>745</v>
+        <v>723</v>
       </c>
       <c r="B61" s="19"/>
       <c r="C61" s="53" t="s">
@@ -5165,7 +5172,7 @@
     </row>
     <row r="62" spans="1:13" ht="15" customHeight="1">
       <c r="A62" s="180" t="s">
-        <v>746</v>
+        <v>724</v>
       </c>
       <c r="B62" s="19"/>
       <c r="C62" s="53" t="s">
@@ -5177,13 +5184,13 @@
       <c r="E62" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F62" s="196"/>
-      <c r="G62" s="196"/>
-      <c r="H62" s="196"/>
+      <c r="F62" s="200"/>
+      <c r="G62" s="200"/>
+      <c r="H62" s="200"/>
     </row>
     <row r="63" spans="1:13" ht="15" customHeight="1">
       <c r="A63" s="180" t="s">
-        <v>747</v>
+        <v>725</v>
       </c>
       <c r="B63" s="11"/>
       <c r="C63" s="53" t="s">
@@ -5195,9 +5202,9 @@
       <c r="E63" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F63" s="196"/>
-      <c r="G63" s="196"/>
-      <c r="H63" s="196"/>
+      <c r="F63" s="200"/>
+      <c r="G63" s="200"/>
+      <c r="H63" s="200"/>
     </row>
     <row r="64" spans="1:13">
       <c r="B64" s="19" t="s">
@@ -5250,13 +5257,13 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="B68" s="195" t="s">
+      <c r="B68" s="199" t="s">
         <v>93</v>
       </c>
-      <c r="C68" s="195"/>
-      <c r="D68" s="195"/>
-      <c r="E68" s="195"/>
-      <c r="F68" s="195"/>
+      <c r="C68" s="199"/>
+      <c r="D68" s="199"/>
+      <c r="E68" s="199"/>
+      <c r="F68" s="199"/>
     </row>
     <row r="69" spans="1:11">
       <c r="B69" s="19" t="s">
@@ -5294,7 +5301,7 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="180" t="s">
-        <v>748</v>
+        <v>726</v>
       </c>
       <c r="B71" s="19" t="s">
         <v>72</v>
@@ -5312,19 +5319,19 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="180" t="s">
-        <v>749</v>
+        <v>727</v>
       </c>
       <c r="B72" s="11"/>
-      <c r="C72" s="205" t="s">
+      <c r="C72" s="209" t="s">
         <v>83</v>
       </c>
-      <c r="D72" s="205"/>
-      <c r="E72" s="205"/>
-      <c r="F72" s="205"/>
+      <c r="D72" s="209"/>
+      <c r="E72" s="209"/>
+      <c r="F72" s="209"/>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1">
       <c r="A73" s="180" t="s">
-        <v>750</v>
+        <v>728</v>
       </c>
       <c r="B73" s="11"/>
       <c r="C73" s="20" t="s">
@@ -5335,7 +5342,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1">
       <c r="A74" s="180" t="s">
-        <v>751</v>
+        <v>729</v>
       </c>
       <c r="B74" s="36"/>
       <c r="C74" s="37" t="s">
@@ -5348,7 +5355,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1">
       <c r="A75" s="180" t="s">
-        <v>752</v>
+        <v>730</v>
       </c>
       <c r="B75" s="36"/>
       <c r="C75" s="37" t="s">
@@ -5408,13 +5415,13 @@
       <c r="F79" s="11"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="B80" s="195" t="s">
+      <c r="B80" s="199" t="s">
         <v>108</v>
       </c>
-      <c r="C80" s="195"/>
-      <c r="D80" s="195"/>
-      <c r="E80" s="195"/>
-      <c r="F80" s="195"/>
+      <c r="C80" s="199"/>
+      <c r="D80" s="199"/>
+      <c r="E80" s="199"/>
+      <c r="F80" s="199"/>
     </row>
     <row r="81" spans="2:11">
       <c r="B81" s="19" t="s">
@@ -5467,11 +5474,11 @@
       <c r="D84" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="E84" s="196" t="s">
+      <c r="E84" s="200" t="s">
         <v>112</v>
       </c>
-      <c r="F84" s="196"/>
-      <c r="G84" s="196"/>
+      <c r="F84" s="200"/>
+      <c r="G84" s="200"/>
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="2:11" ht="15" customHeight="1">
@@ -5482,11 +5489,11 @@
       <c r="D85" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="E85" s="196" t="s">
+      <c r="E85" s="200" t="s">
         <v>112</v>
       </c>
-      <c r="F85" s="196"/>
-      <c r="G85" s="196"/>
+      <c r="F85" s="200"/>
+      <c r="G85" s="200"/>
     </row>
     <row r="86" spans="2:11">
       <c r="C86" s="21" t="s">
@@ -5500,12 +5507,12 @@
     </row>
     <row r="87" spans="2:11">
       <c r="B87" s="11"/>
-      <c r="C87" s="197" t="s">
+      <c r="C87" s="201" t="s">
         <v>83</v>
       </c>
-      <c r="D87" s="197"/>
-      <c r="E87" s="197"/>
-      <c r="F87" s="197"/>
+      <c r="D87" s="201"/>
+      <c r="E87" s="201"/>
+      <c r="F87" s="201"/>
     </row>
     <row r="88" spans="2:11">
       <c r="B88" s="11"/>
@@ -5553,10 +5560,10 @@
       <c r="C91" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D91" s="205" t="s">
+      <c r="D91" s="209" t="s">
         <v>104</v>
       </c>
-      <c r="E91" s="205"/>
+      <c r="E91" s="209"/>
       <c r="F91" s="11"/>
       <c r="H91" s="19"/>
       <c r="I91" s="2"/>
@@ -5568,10 +5575,10 @@
       <c r="C92" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D92" s="205" t="s">
+      <c r="D92" s="209" t="s">
         <v>104</v>
       </c>
-      <c r="E92" s="205"/>
+      <c r="E92" s="209"/>
       <c r="F92" s="11"/>
       <c r="H92" s="19"/>
       <c r="I92" s="2"/>
@@ -5595,13 +5602,13 @@
       <c r="F94" s="11"/>
     </row>
     <row r="95" spans="2:11">
-      <c r="B95" s="195" t="s">
+      <c r="B95" s="199" t="s">
         <v>109</v>
       </c>
-      <c r="C95" s="195"/>
-      <c r="D95" s="195"/>
-      <c r="E95" s="195"/>
-      <c r="F95" s="195"/>
+      <c r="C95" s="199"/>
+      <c r="D95" s="199"/>
+      <c r="E95" s="199"/>
+      <c r="F95" s="199"/>
     </row>
     <row r="96" spans="2:11">
       <c r="B96" s="19" t="s">
@@ -5652,11 +5659,11 @@
       <c r="D99" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="E99" s="196" t="s">
+      <c r="E99" s="200" t="s">
         <v>112</v>
       </c>
-      <c r="F99" s="196"/>
-      <c r="G99" s="196"/>
+      <c r="F99" s="200"/>
+      <c r="G99" s="200"/>
     </row>
     <row r="100" spans="2:7" ht="15" customHeight="1">
       <c r="B100" s="11"/>
@@ -5666,11 +5673,11 @@
       <c r="D100" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="E100" s="196" t="s">
+      <c r="E100" s="200" t="s">
         <v>112</v>
       </c>
-      <c r="F100" s="196"/>
-      <c r="G100" s="196"/>
+      <c r="F100" s="200"/>
+      <c r="G100" s="200"/>
     </row>
     <row r="101" spans="2:7">
       <c r="C101" s="21" t="s">
@@ -5684,12 +5691,12 @@
     </row>
     <row r="102" spans="2:7">
       <c r="B102" s="11"/>
-      <c r="C102" s="197" t="s">
+      <c r="C102" s="201" t="s">
         <v>83</v>
       </c>
-      <c r="D102" s="197"/>
-      <c r="E102" s="197"/>
-      <c r="F102" s="197"/>
+      <c r="D102" s="201"/>
+      <c r="E102" s="201"/>
+      <c r="F102" s="201"/>
     </row>
     <row r="103" spans="2:7">
       <c r="B103" s="11"/>
@@ -5731,8 +5738,8 @@
       <c r="C106" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D106" s="194"/>
-      <c r="E106" s="194"/>
+      <c r="D106" s="198"/>
+      <c r="E106" s="198"/>
       <c r="F106" s="11"/>
     </row>
     <row r="107" spans="2:7">
@@ -5742,8 +5749,8 @@
       <c r="C107" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="D107" s="198"/>
-      <c r="E107" s="198"/>
+      <c r="D107" s="202"/>
+      <c r="E107" s="202"/>
       <c r="F107" s="17"/>
     </row>
     <row r="108" spans="2:7">
@@ -5757,7 +5764,7 @@
       <c r="F109" s="11"/>
     </row>
     <row r="114" spans="1:15" s="27" customFormat="1">
-      <c r="A114" s="206"/>
+      <c r="A114" s="184"/>
       <c r="C114" s="28"/>
       <c r="D114" s="28"/>
       <c r="E114" s="29"/>
@@ -5788,56 +5795,56 @@
       <c r="B117" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C117" s="199" t="s">
+      <c r="C117" s="203" t="s">
         <v>87</v>
       </c>
-      <c r="D117" s="199"/>
-      <c r="E117" s="199"/>
-      <c r="F117" s="199"/>
+      <c r="D117" s="203"/>
+      <c r="E117" s="203"/>
+      <c r="F117" s="203"/>
       <c r="H117" s="84"/>
     </row>
     <row r="118" spans="1:15">
       <c r="B118" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C118" s="194" t="s">
+      <c r="C118" s="198" t="s">
         <v>90</v>
       </c>
-      <c r="D118" s="194"/>
-      <c r="E118" s="194"/>
-      <c r="F118" s="194"/>
+      <c r="D118" s="198"/>
+      <c r="E118" s="198"/>
+      <c r="F118" s="198"/>
       <c r="H118" s="84"/>
     </row>
     <row r="119" spans="1:15">
       <c r="B119" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C119" s="194" t="s">
+      <c r="C119" s="198" t="s">
         <v>107</v>
       </c>
-      <c r="D119" s="194"/>
-      <c r="E119" s="194"/>
-      <c r="F119" s="194"/>
+      <c r="D119" s="198"/>
+      <c r="E119" s="198"/>
+      <c r="F119" s="198"/>
       <c r="H119" s="84"/>
     </row>
     <row r="120" spans="1:15" ht="15" customHeight="1">
       <c r="B120" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="C120" s="193" t="s">
+      <c r="C120" s="197" t="s">
         <v>512</v>
       </c>
-      <c r="D120" s="193"/>
-      <c r="E120" s="193"/>
-      <c r="F120" s="193"/>
+      <c r="D120" s="197"/>
+      <c r="E120" s="197"/>
+      <c r="F120" s="197"/>
       <c r="H120" s="84"/>
     </row>
     <row r="121" spans="1:15">
       <c r="B121" s="13"/>
-      <c r="C121" s="194"/>
-      <c r="D121" s="194"/>
-      <c r="E121" s="194"/>
-      <c r="F121" s="194"/>
+      <c r="C121" s="198"/>
+      <c r="D121" s="198"/>
+      <c r="E121" s="198"/>
+      <c r="F121" s="198"/>
       <c r="H121" s="84"/>
     </row>
     <row r="123" spans="1:15">
@@ -6104,7 +6111,7 @@
   <dimension ref="B2:B54"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6122,7 +6129,7 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="7" spans="2:2">
@@ -6152,58 +6159,34 @@
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="62" t="s">
-        <v>583</v>
-      </c>
+      <c r="B19" s="62"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
-        <v>593</v>
-      </c>
+      <c r="B20" s="4"/>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="62" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -6421,7 +6404,7 @@
     </row>
     <row r="7" spans="1:31">
       <c r="B7" s="76" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C7" s="76" t="s">
         <v>41</v>
@@ -6664,13 +6647,13 @@
     </row>
     <row r="11" spans="1:31">
       <c r="B11" s="76" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C11" s="76" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="76" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="E11" s="76" t="s">
         <v>35</v>
@@ -11946,7 +11929,7 @@
       </c>
       <c r="C100" s="83"/>
       <c r="D100" s="83" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="E100" s="76" t="s">
         <v>60</v>
@@ -15317,8 +15300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFB6193-2FFB-432C-838D-1ECE285F4BDD}">
   <dimension ref="B1:G280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15336,10 +15319,10 @@
     </row>
     <row r="2" spans="2:6" s="43" customFormat="1"/>
     <row r="3" spans="2:6" s="43" customFormat="1">
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="188" t="s">
         <v>251</v>
       </c>
-      <c r="C3" s="184"/>
+      <c r="C3" s="188"/>
       <c r="D3" s="60"/>
       <c r="E3" s="60"/>
       <c r="F3" s="60"/>
@@ -15360,10 +15343,10 @@
     </row>
     <row r="5" spans="2:6" s="43" customFormat="1"/>
     <row r="6" spans="2:6" s="43" customFormat="1">
-      <c r="B6" s="184" t="s">
+      <c r="B6" s="188" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="184"/>
+      <c r="C6" s="188"/>
       <c r="D6" s="60"/>
       <c r="E6" s="60"/>
       <c r="F6" s="60"/>
@@ -15387,10 +15370,10 @@
     </row>
     <row r="8" spans="2:6" s="43" customFormat="1"/>
     <row r="9" spans="2:6" s="43" customFormat="1">
-      <c r="B9" s="184" t="s">
+      <c r="B9" s="188" t="s">
         <v>222</v>
       </c>
-      <c r="C9" s="184"/>
+      <c r="C9" s="188"/>
       <c r="D9" s="60"/>
       <c r="E9" s="60"/>
       <c r="F9" s="60"/>
@@ -15440,7 +15423,7 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="57" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="C17" s="54" t="s">
         <v>556</v>
@@ -15565,7 +15548,7 @@
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="57" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="C28" s="54" t="s">
         <v>556</v>
@@ -15691,13 +15674,13 @@
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="57" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="C39" s="54" t="s">
         <v>556</v>
       </c>
       <c r="D39" s="163" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="E39" s="55" t="s">
         <v>35</v>
@@ -15706,7 +15689,7 @@
     <row r="40" spans="2:5">
       <c r="B40" s="109"/>
       <c r="C40" s="110" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="D40" s="110">
         <v>0.1</v>
@@ -15717,7 +15700,7 @@
     </row>
     <row r="41" spans="2:5">
       <c r="C41" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="D41">
         <v>2.4E-2</v>
@@ -15728,7 +15711,7 @@
     </row>
     <row r="42" spans="2:5">
       <c r="C42" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="D42">
         <v>0.12</v>
@@ -15739,18 +15722,18 @@
     </row>
     <row r="43" spans="2:5">
       <c r="C43" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="D43">
         <v>5.5</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="C44" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -15761,7 +15744,7 @@
     </row>
     <row r="45" spans="2:5">
       <c r="C45" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D45">
         <v>0.7</v>
@@ -15772,7 +15755,7 @@
     </row>
     <row r="46" spans="2:5">
       <c r="C46" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="D46">
         <v>0.7</v>
@@ -15794,13 +15777,13 @@
     </row>
     <row r="48" spans="2:5">
       <c r="B48" s="57" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="C48" s="54" t="s">
         <v>556</v>
       </c>
       <c r="D48" s="163" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="E48" s="55" t="s">
         <v>35</v>
@@ -15809,7 +15792,7 @@
     <row r="49" spans="2:5">
       <c r="B49" s="109"/>
       <c r="C49" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="D49">
         <v>0.1</v>
@@ -15820,7 +15803,7 @@
     </row>
     <row r="50" spans="2:5">
       <c r="C50" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="D50">
         <v>2.4E-2</v>
@@ -15831,7 +15814,7 @@
     </row>
     <row r="51" spans="2:5">
       <c r="C51" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="D51">
         <v>0.12</v>
@@ -15842,18 +15825,18 @@
     </row>
     <row r="52" spans="2:5">
       <c r="C52" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="D52">
         <v>1.2</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="53" spans="2:5">
       <c r="C53" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -15864,7 +15847,7 @@
     </row>
     <row r="54" spans="2:5">
       <c r="C54" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D54">
         <v>0.7</v>
@@ -15875,7 +15858,7 @@
     </row>
     <row r="55" spans="2:5">
       <c r="C55" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="D55">
         <v>0.7</v>
@@ -15897,10 +15880,10 @@
     </row>
     <row r="57" spans="2:5">
       <c r="B57" s="57" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="C57" s="54" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="D57" s="54">
         <v>0.1</v>
@@ -15911,7 +15894,7 @@
     </row>
     <row r="58" spans="2:5">
       <c r="C58" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="D58">
         <v>2.4E-2</v>
@@ -15922,7 +15905,7 @@
     </row>
     <row r="59" spans="2:5">
       <c r="C59" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="D59">
         <v>0.12</v>
@@ -15933,19 +15916,19 @@
     </row>
     <row r="60" spans="2:5">
       <c r="C60" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="D60" s="122">
         <f>1/(1/D43+0.46)</f>
         <v>1.5580736543909348</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="61" spans="2:5">
       <c r="C61" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -15956,7 +15939,7 @@
     </row>
     <row r="62" spans="2:5">
       <c r="C62" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D62">
         <v>0.7</v>
@@ -15967,7 +15950,7 @@
     </row>
     <row r="63" spans="2:5">
       <c r="C63" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="D63">
         <v>0.7</v>
@@ -15989,10 +15972,10 @@
     </row>
     <row r="65" spans="2:5">
       <c r="B65" s="57" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="C65" s="54" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="D65" s="54">
         <v>0.1</v>
@@ -16003,7 +15986,7 @@
     </row>
     <row r="66" spans="2:5">
       <c r="C66" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="D66">
         <v>2.4E-2</v>
@@ -16014,7 +15997,7 @@
     </row>
     <row r="67" spans="2:5">
       <c r="C67" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="D67">
         <v>0.12</v>
@@ -16025,19 +16008,19 @@
     </row>
     <row r="68" spans="2:5">
       <c r="C68" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="D68" s="122">
         <f>1/(1/D52+0.46)</f>
         <v>0.77319587628865971</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="69" spans="2:5">
       <c r="C69" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -16048,7 +16031,7 @@
     </row>
     <row r="70" spans="2:5">
       <c r="C70" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D70">
         <v>0.7</v>
@@ -16059,7 +16042,7 @@
     </row>
     <row r="71" spans="2:5">
       <c r="C71" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="D71">
         <v>0.7</v>
@@ -16266,7 +16249,7 @@
       </c>
     </row>
     <row r="89" spans="2:5">
-      <c r="B89" s="186" t="s">
+      <c r="B89" s="190" t="s">
         <v>248</v>
       </c>
       <c r="C89" t="s">
@@ -16280,7 +16263,7 @@
       </c>
     </row>
     <row r="90" spans="2:5">
-      <c r="B90" s="186"/>
+      <c r="B90" s="190"/>
       <c r="C90" t="s">
         <v>236</v>
       </c>
@@ -16292,7 +16275,7 @@
       </c>
     </row>
     <row r="91" spans="2:5">
-      <c r="B91" s="186"/>
+      <c r="B91" s="190"/>
       <c r="C91" t="s">
         <v>237</v>
       </c>
@@ -16304,7 +16287,7 @@
       </c>
     </row>
     <row r="92" spans="2:5">
-      <c r="B92" s="186"/>
+      <c r="B92" s="190"/>
       <c r="C92" t="s">
         <v>238</v>
       </c>
@@ -18526,8 +18509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FFD36E-9D83-4A4D-B220-665B8D77F4F8}">
   <dimension ref="A1:AG231"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18560,7 +18543,7 @@
     <row r="1" spans="1:33" s="42" customFormat="1">
       <c r="A1" s="181"/>
       <c r="B1" s="41" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="I1" s="67"/>
       <c r="J1" s="67"/>
@@ -18571,7 +18554,7 @@
       <c r="O1" s="167"/>
       <c r="Q1" s="58"/>
       <c r="R1" s="170" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="Y1" s="58"/>
     </row>
@@ -18592,41 +18575,41 @@
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
       <c r="V3" s="124" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="W3" s="124" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="X3" s="124" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="AB3" s="62" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="B4" s="193" t="s">
+        <v>647</v>
+      </c>
+      <c r="C4" s="193" t="s">
+        <v>640</v>
+      </c>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="154" t="s">
+        <v>592</v>
+      </c>
+      <c r="G4" s="154" t="s">
+        <v>597</v>
+      </c>
+      <c r="H4" s="154" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="4" spans="1:33">
-      <c r="B4" s="189" t="s">
-        <v>653</v>
-      </c>
-      <c r="C4" s="189" t="s">
-        <v>646</v>
-      </c>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="154" t="s">
-        <v>598</v>
-      </c>
-      <c r="G4" s="154" t="s">
-        <v>603</v>
-      </c>
-      <c r="H4" s="154" t="s">
-        <v>632</v>
-      </c>
-      <c r="I4" s="187" t="s">
-        <v>654</v>
-      </c>
-      <c r="J4" s="187" t="s">
-        <v>655</v>
+      <c r="I4" s="191" t="s">
+        <v>648</v>
+      </c>
+      <c r="J4" s="191" t="s">
+        <v>649</v>
       </c>
       <c r="K4"/>
       <c r="L4"/>
@@ -18644,7 +18627,7 @@
         <v>3</v>
       </c>
       <c r="V4" s="125" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="W4" s="125" t="s">
         <v>35</v>
@@ -18655,20 +18638,20 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="183" t="s">
-        <v>725</v>
-      </c>
-      <c r="B5" s="190"/>
+        <v>703</v>
+      </c>
+      <c r="B5" s="194"/>
       <c r="C5" s="151" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="D5" s="151" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="E5" s="151" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F5" s="152" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="G5" s="152" t="s">
         <v>35</v>
@@ -18676,24 +18659,24 @@
       <c r="H5" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="188"/>
-      <c r="J5" s="188"/>
+      <c r="I5" s="192"/>
+      <c r="J5" s="192"/>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5" s="169"/>
       <c r="Q5" s="128" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="R5" s="130" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="S5" s="131" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="T5" s="131" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="U5" s="131" t="s">
         <v>35</v>
@@ -18710,20 +18693,20 @@
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="115" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="AD5" s="115"/>
       <c r="AE5" s="115" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="AF5" s="115"/>
       <c r="AG5" s="115" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="6" spans="1:33">
       <c r="B6" s="164" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="C6" s="164"/>
       <c r="D6" s="158"/>
@@ -18753,13 +18736,13 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="183" t="s">
-        <v>693</v>
+        <v>739</v>
       </c>
       <c r="B7" s="112" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>35</v>
@@ -18791,13 +18774,13 @@
         <v>1</v>
       </c>
       <c r="R7" s="130" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="S7" s="131" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="T7" s="131" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="U7" s="132" t="s">
         <v>35</v>
@@ -18815,7 +18798,7 @@
         <v>4509</v>
       </c>
       <c r="AB7" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="AC7" s="122">
         <v>0.753</v>
@@ -18829,13 +18812,13 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="183" t="s">
-        <v>694</v>
+        <v>740</v>
       </c>
       <c r="B8" s="175" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="C8" s="153" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="D8" s="153" t="s">
         <v>35</v>
@@ -18870,7 +18853,7 @@
         <v>4430</v>
       </c>
       <c r="AB8" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="AC8" s="122">
         <v>0.49199999999999999</v>
@@ -18892,10 +18875,10 @@
         <v>1</v>
       </c>
       <c r="R9" s="133" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="S9" s="134" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="T9" s="135" t="s">
         <v>35</v>
@@ -18916,7 +18899,7 @@
         <v>4253</v>
       </c>
       <c r="AB9" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="AC9" s="122">
         <v>0.39100000000000001</v>
@@ -18930,7 +18913,7 @@
     </row>
     <row r="10" spans="1:33">
       <c r="B10" s="164" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="C10" s="164"/>
       <c r="D10" s="158"/>
@@ -18949,10 +18932,10 @@
         <v>2</v>
       </c>
       <c r="R10" s="136" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="S10" s="137" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="T10" s="138" t="s">
         <v>35</v>
@@ -18975,16 +18958,16 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="183" t="s">
-        <v>695</v>
+        <v>741</v>
       </c>
       <c r="B11" s="112" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="E11" s="111" t="s">
         <v>35</v>
@@ -19014,7 +18997,7 @@
       <c r="X11" s="122"/>
       <c r="AA11" s="116"/>
       <c r="AB11" s="116" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="AC11" s="123"/>
       <c r="AD11" s="116"/>
@@ -19024,16 +19007,16 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="183" t="s">
-        <v>702</v>
+        <v>742</v>
       </c>
       <c r="B12" s="175" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="C12" s="153" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="D12" s="153" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="E12" s="153" t="s">
         <v>35</v>
@@ -19062,13 +19045,13 @@
         <v>1</v>
       </c>
       <c r="R12" s="57" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="S12" s="54" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="T12" s="54" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="U12" s="127" t="s">
         <v>35</v>
@@ -19086,7 +19069,7 @@
         <v>891</v>
       </c>
       <c r="AB12" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="AC12" s="122">
         <v>0.76100000000000001</v>
@@ -19109,13 +19092,13 @@
         <v>2</v>
       </c>
       <c r="R13" s="141" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="S13" s="142" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="T13" s="142" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="U13" s="142" t="s">
         <v>35</v>
@@ -19130,13 +19113,13 @@
         <v>0.76800000000000002</v>
       </c>
       <c r="Y13" s="140" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="AA13" s="117">
         <v>4336</v>
       </c>
       <c r="AB13" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="AC13" s="122">
         <v>0.89200000000000002</v>
@@ -19151,7 +19134,7 @@
     </row>
     <row r="14" spans="1:33">
       <c r="B14" s="164" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="C14" s="164"/>
       <c r="D14" s="158"/>
@@ -19170,13 +19153,13 @@
         <v>3</v>
       </c>
       <c r="R14" s="109" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="S14" s="110" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="T14" s="110" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="U14" s="108" t="s">
         <v>35</v>
@@ -19194,7 +19177,7 @@
         <v>4370</v>
       </c>
       <c r="AB14" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="AC14" s="122">
         <v>0.57199999999999995</v>
@@ -19209,16 +19192,16 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="183" t="s">
-        <v>696</v>
+        <v>743</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="E15" s="55" t="s">
         <v>35</v>
@@ -19233,7 +19216,7 @@
         <v>0.59299999999999997</v>
       </c>
       <c r="I15" s="155" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="J15" s="155" t="s">
         <v>35</v>
@@ -19247,13 +19230,13 @@
         <v>4</v>
       </c>
       <c r="R15" s="141" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="S15" s="142" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="T15" s="142" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="U15" s="142" t="s">
         <v>35</v>
@@ -19268,14 +19251,14 @@
         <v>0.76</v>
       </c>
       <c r="Y15" s="140" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="Z15" s="129"/>
       <c r="AA15" s="117">
         <v>4446</v>
       </c>
       <c r="AB15" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="AC15" s="122">
         <v>0.187</v>
@@ -19290,16 +19273,16 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="183" t="s">
-        <v>697</v>
+        <v>744</v>
       </c>
       <c r="B16" s="110" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="C16" s="111" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="D16" s="111" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="E16" s="111" t="s">
         <v>35</v>
@@ -19314,7 +19297,7 @@
         <v>0.76</v>
       </c>
       <c r="I16" s="156" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="J16" s="156" t="s">
         <v>35</v>
@@ -19328,13 +19311,13 @@
         <v>5</v>
       </c>
       <c r="R16" s="109" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="S16" s="110" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="T16" s="110" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="U16" s="108" t="s">
         <v>35</v>
@@ -19352,7 +19335,7 @@
         <v>4211</v>
       </c>
       <c r="AB16" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="AC16" s="122">
         <v>0.498</v>
@@ -19367,16 +19350,16 @@
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="183" t="s">
-        <v>698</v>
+        <v>745</v>
       </c>
       <c r="B17" s="110" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="C17" s="111" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D17" s="111" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="E17" s="111" t="s">
         <v>35</v>
@@ -19391,7 +19374,7 @@
         <v>0.76800000000000002</v>
       </c>
       <c r="I17" s="156" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="J17" s="156" t="s">
         <v>35</v>
@@ -19405,13 +19388,13 @@
         <v>6</v>
       </c>
       <c r="R17" s="109" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="S17" s="110" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="T17" s="110" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="U17" s="108" t="s">
         <v>35</v>
@@ -19429,7 +19412,7 @@
         <v>4239</v>
       </c>
       <c r="AB17" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="AC17" s="122">
         <v>0.47299999999999998</v>
@@ -19444,16 +19427,16 @@
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="183" t="s">
-        <v>699</v>
+        <v>746</v>
       </c>
       <c r="B18" s="110" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="C18" s="111" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D18" s="111" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="E18" s="111" t="s">
         <v>35</v>
@@ -19468,7 +19451,7 @@
         <v>0.69599999999999995</v>
       </c>
       <c r="I18" s="156" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="J18" s="156" t="s">
         <v>35</v>
@@ -19482,13 +19465,13 @@
         <v>7</v>
       </c>
       <c r="R18" s="109" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="S18" s="110" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="T18" s="110" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="U18" s="108" t="s">
         <v>35</v>
@@ -19506,7 +19489,7 @@
         <v>4478</v>
       </c>
       <c r="AB18" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="AC18" s="122">
         <v>0.35299999999999998</v>
@@ -19521,16 +19504,16 @@
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="183" t="s">
-        <v>701</v>
+        <v>747</v>
       </c>
       <c r="B19" s="110" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="C19" s="111" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D19" s="111" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="E19" s="111" t="s">
         <v>35</v>
@@ -19545,7 +19528,7 @@
         <v>0.49299999999999999</v>
       </c>
       <c r="I19" s="156" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="J19" s="156" t="s">
         <v>35</v>
@@ -19559,13 +19542,13 @@
         <v>8</v>
       </c>
       <c r="R19" s="109" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="S19" s="110" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="T19" s="110" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="U19" s="108" t="s">
         <v>35</v>
@@ -19583,7 +19566,7 @@
         <v>4469</v>
       </c>
       <c r="AB19" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="AC19" s="122">
         <v>0.24299999999999999</v>
@@ -19598,16 +19581,16 @@
     </row>
     <row r="20" spans="1:33">
       <c r="A20" s="183" t="s">
-        <v>700</v>
+        <v>748</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="C20" s="153" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="D20" s="153" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="E20" s="153" t="s">
         <v>35</v>
@@ -19622,7 +19605,7 @@
         <v>0.30199999999999999</v>
       </c>
       <c r="I20" s="157" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="J20" s="157" t="s">
         <v>35</v>
@@ -19636,13 +19619,13 @@
         <v>9</v>
       </c>
       <c r="R20" s="141" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="S20" s="142" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="T20" s="142" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="U20" s="142" t="s">
         <v>35</v>
@@ -19657,7 +19640,7 @@
         <v>0.30199999999999999</v>
       </c>
       <c r="Y20" s="140" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
     </row>
     <row r="21" spans="1:33">
@@ -19670,13 +19653,13 @@
         <v>10</v>
       </c>
       <c r="R21" s="141" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="S21" s="142" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="T21" s="142" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="U21" s="142" t="s">
         <v>35</v>
@@ -19691,12 +19674,12 @@
         <v>0.49299999999999999</v>
       </c>
       <c r="Y21" s="140" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="Z21" s="129"/>
       <c r="AA21" s="116"/>
       <c r="AB21" s="116" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="AC21" s="123"/>
       <c r="AD21" s="116"/>
@@ -19706,7 +19689,7 @@
     </row>
     <row r="22" spans="1:33">
       <c r="B22" s="164" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C22" s="165"/>
       <c r="D22" s="166"/>
@@ -19725,13 +19708,13 @@
         <v>11</v>
       </c>
       <c r="R22" s="109" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="S22" s="110" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="T22" s="110" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="U22" s="108" t="s">
         <v>35</v>
@@ -19749,7 +19732,7 @@
         <v>4340</v>
       </c>
       <c r="AB22" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="AC22" s="122">
         <v>0.63700000000000001</v>
@@ -19763,19 +19746,19 @@
     </row>
     <row r="23" spans="1:33">
       <c r="A23" s="183" t="s">
-        <v>703</v>
+        <v>749</v>
       </c>
       <c r="B23" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="F23" s="174">
         <v>1.0369999999999999</v>
@@ -19787,7 +19770,7 @@
         <v>0.64300000000000002</v>
       </c>
       <c r="I23" s="150" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="J23" s="150" t="s">
         <v>35</v>
@@ -19801,13 +19784,13 @@
         <v>12</v>
       </c>
       <c r="R23" s="109" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="S23" s="110" t="s">
+        <v>607</v>
+      </c>
+      <c r="T23" s="110" t="s">
         <v>613</v>
-      </c>
-      <c r="T23" s="110" t="s">
-        <v>619</v>
       </c>
       <c r="U23" s="108" t="s">
         <v>35</v>
@@ -19827,19 +19810,19 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" s="183" t="s">
-        <v>704</v>
+        <v>750</v>
       </c>
       <c r="B24" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="F24" s="174">
         <v>1.022</v>
@@ -19851,7 +19834,7 @@
         <v>0.45500000000000002</v>
       </c>
       <c r="I24" s="150" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="J24" s="150" t="s">
         <v>35</v>
@@ -19865,13 +19848,13 @@
         <v>13</v>
       </c>
       <c r="R24" s="141" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="S24" s="142" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="T24" s="142" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="U24" s="142" t="s">
         <v>35</v>
@@ -19886,11 +19869,11 @@
         <v>0.59299999999999997</v>
       </c>
       <c r="Y24" s="140" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="AA24" s="116"/>
       <c r="AB24" s="116" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="AC24" s="123"/>
       <c r="AD24" s="116"/>
@@ -19900,19 +19883,19 @@
     </row>
     <row r="25" spans="1:33">
       <c r="A25" s="183" t="s">
-        <v>705</v>
+        <v>751</v>
       </c>
       <c r="B25" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="F25" s="174">
         <v>0.98</v>
@@ -19924,7 +19907,7 @@
         <v>0.70899999999999996</v>
       </c>
       <c r="I25" s="150" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="J25" s="150" t="s">
         <v>35</v>
@@ -19938,13 +19921,13 @@
         <v>14</v>
       </c>
       <c r="R25" s="109" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="S25" s="110" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="T25" s="110" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="U25" s="108" t="s">
         <v>35</v>
@@ -19962,7 +19945,7 @@
         <v>4456</v>
       </c>
       <c r="AB25" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="AC25" s="122">
         <v>0.17899999999999999</v>
@@ -19976,19 +19959,19 @@
     </row>
     <row r="26" spans="1:33">
       <c r="A26" s="183" t="s">
-        <v>706</v>
+        <v>752</v>
       </c>
       <c r="B26" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="F26" s="174">
         <v>0.82799999999999996</v>
@@ -20000,7 +19983,7 @@
         <v>0.52300000000000002</v>
       </c>
       <c r="I26" s="150" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="J26" s="150" t="s">
         <v>35</v>
@@ -20014,13 +19997,13 @@
         <v>15</v>
       </c>
       <c r="R26" s="109" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="S26" s="110" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="T26" s="110" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="U26" s="108" t="s">
         <v>35</v>
@@ -20038,7 +20021,7 @@
         <v>4268</v>
       </c>
       <c r="AB26" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="AC26" s="122">
         <v>0.43099999999999999</v>
@@ -20052,19 +20035,19 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" s="183" t="s">
-        <v>707</v>
+        <v>753</v>
       </c>
       <c r="B27" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="F27" s="174">
         <v>0.68200000000000005</v>
@@ -20076,7 +20059,7 @@
         <v>0.6</v>
       </c>
       <c r="I27" s="150" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="J27" s="150" t="s">
         <v>35</v>
@@ -20090,13 +20073,13 @@
         <v>16</v>
       </c>
       <c r="R27" s="109" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="S27" s="110" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="T27" s="110" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="U27" s="108" t="s">
         <v>35</v>
@@ -20115,7 +20098,7 @@
         <v>116</v>
       </c>
       <c r="AB27" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="AC27" s="122">
         <v>0.38700000000000001</v>
@@ -20129,19 +20112,19 @@
     </row>
     <row r="28" spans="1:33">
       <c r="A28" s="183" t="s">
-        <v>708</v>
+        <v>754</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C28" s="153" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="D28" s="153" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="E28" s="153" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="F28" s="162">
         <v>0.67400000000000004</v>
@@ -20153,7 +20136,7 @@
         <v>0.28399999999999997</v>
       </c>
       <c r="I28" s="157" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="J28" s="157" t="s">
         <v>35</v>
@@ -20167,13 +20150,13 @@
         <v>17</v>
       </c>
       <c r="R28" s="109" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="S28" s="110" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="T28" s="110" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="U28" s="108" t="s">
         <v>35</v>
@@ -20199,13 +20182,13 @@
         <v>18</v>
       </c>
       <c r="R29" s="109" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="S29" s="110" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="T29" s="110" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="U29" s="108" t="s">
         <v>35</v>
@@ -20221,6 +20204,17 @@
       </c>
     </row>
     <row r="30" spans="1:33">
+      <c r="B30" s="164" t="s">
+        <v>736</v>
+      </c>
+      <c r="C30" s="165"/>
+      <c r="D30" s="166"/>
+      <c r="E30" s="166"/>
+      <c r="F30" s="171"/>
+      <c r="G30" s="171"/>
+      <c r="H30" s="171"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="159"/>
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
@@ -20230,13 +20224,13 @@
         <v>19</v>
       </c>
       <c r="R30" s="141" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="S30" s="142" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="T30" s="142" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="U30" s="142" t="s">
         <v>35</v>
@@ -20251,11 +20245,25 @@
         <v>0.69599999999999995</v>
       </c>
       <c r="Y30" s="140" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="Z30" s="129"/>
     </row>
     <row r="31" spans="1:33">
+      <c r="A31" s="183" t="s">
+        <v>737</v>
+      </c>
+      <c r="B31" t="s">
+        <v>738</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="174"/>
+      <c r="G31" s="174"/>
+      <c r="H31" s="174"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
@@ -20265,13 +20273,13 @@
         <v>20</v>
       </c>
       <c r="R31" s="109" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="S31" s="110" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="T31" s="110" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="U31" s="108" t="s">
         <v>35</v>
@@ -20297,13 +20305,13 @@
         <v>21</v>
       </c>
       <c r="R32" s="78" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="T32" s="5" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="U32" s="126" t="s">
         <v>35</v>
@@ -20329,16 +20337,16 @@
         <v>1</v>
       </c>
       <c r="R34" s="57" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="S34" s="54" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="T34" s="54" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="U34" s="127" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="V34" s="146">
         <v>1.575</v>
@@ -20355,16 +20363,16 @@
         <v>2</v>
       </c>
       <c r="R35" s="141" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="S35" s="142" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="T35" s="142" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="U35" s="142" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="V35" s="147">
         <v>0.98</v>
@@ -20376,28 +20384,25 @@
         <v>0.70899999999999996</v>
       </c>
       <c r="Y35" s="140" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
     <row r="36" spans="13:25">
-      <c r="M36" s="150">
-        <f>1/0.46</f>
-        <v>2.1739130434782608</v>
-      </c>
+      <c r="M36" s="150"/>
       <c r="Q36" s="139">
         <v>3</v>
       </c>
       <c r="R36" s="109" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="S36" s="110" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="T36" s="110" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="U36" s="108" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="V36" s="121">
         <v>0.97</v>
@@ -20414,16 +20419,16 @@
         <v>4</v>
       </c>
       <c r="R37" s="109" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="S37" s="110" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="T37" s="110" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="U37" s="108" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="V37" s="121">
         <v>1.048</v>
@@ -20440,16 +20445,16 @@
         <v>5</v>
       </c>
       <c r="R38" s="109" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="S38" s="110" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="T38" s="110" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="U38" s="108" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="V38" s="121">
         <v>0.68899999999999995</v>
@@ -20466,16 +20471,16 @@
         <v>6</v>
       </c>
       <c r="R39" s="141" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="S39" s="142" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="T39" s="142" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="U39" s="142" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="V39" s="147">
         <v>0.68200000000000005</v>
@@ -20487,28 +20492,24 @@
         <v>0.6</v>
       </c>
       <c r="Y39" s="140" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="40" spans="13:25">
-      <c r="M40" s="6">
-        <f>M36*0.1</f>
-        <v>0.21739130434782608</v>
-      </c>
       <c r="Q40" s="139">
         <v>7</v>
       </c>
       <c r="R40" s="109" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="S40" s="110" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="T40" s="110" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="U40" s="108" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="V40" s="119">
         <v>1.0329999999999999</v>
@@ -20525,16 +20526,16 @@
         <v>8</v>
       </c>
       <c r="R41" s="109" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="S41" s="110" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="T41" s="110" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="U41" s="108" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="V41" s="119">
         <v>0.68100000000000005</v>
@@ -20551,16 +20552,16 @@
         <v>9</v>
       </c>
       <c r="R42" s="141" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="S42" s="142" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="T42" s="142" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="U42" s="142" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="V42" s="147">
         <v>0.67400000000000004</v>
@@ -20572,7 +20573,7 @@
         <v>0.28399999999999997</v>
       </c>
       <c r="Y42" s="140" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
     </row>
     <row r="43" spans="13:25">
@@ -20580,16 +20581,16 @@
         <v>10</v>
       </c>
       <c r="R43" s="141" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="S43" s="142" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="T43" s="142" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="U43" s="142" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="V43" s="147">
         <v>1.022</v>
@@ -20601,7 +20602,7 @@
         <v>0.45500000000000002</v>
       </c>
       <c r="Y43" s="140" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="44" spans="13:25">
@@ -20609,16 +20610,16 @@
         <v>11</v>
       </c>
       <c r="R44" s="109" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="S44" s="110" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="T44" s="110" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="U44" s="108" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="V44" s="119">
         <v>0.67400000000000004</v>
@@ -20635,16 +20636,16 @@
         <v>12</v>
       </c>
       <c r="R45" s="109" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="S45" s="110" t="s">
+        <v>607</v>
+      </c>
+      <c r="T45" s="110" t="s">
         <v>613</v>
       </c>
-      <c r="T45" s="110" t="s">
-        <v>619</v>
-      </c>
       <c r="U45" s="108" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="V45" s="119">
         <v>0.66700000000000004</v>
@@ -20661,16 +20662,16 @@
         <v>13</v>
       </c>
       <c r="R46" s="109" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="S46" s="110" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="T46" s="110" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="U46" s="108" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="V46" s="119">
         <v>1.2929999999999999</v>
@@ -20687,16 +20688,16 @@
         <v>14</v>
       </c>
       <c r="R47" s="141" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="S47" s="142" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="T47" s="142" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="U47" s="142" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="V47" s="147">
         <v>0.82799999999999996</v>
@@ -20708,7 +20709,7 @@
         <v>0.52300000000000002</v>
       </c>
       <c r="Y47" s="140" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="48" spans="13:25">
@@ -20716,16 +20717,16 @@
         <v>15</v>
       </c>
       <c r="R48" s="109" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="S48" s="110" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="T48" s="110" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="U48" s="108" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="V48" s="119">
         <v>0.81899999999999995</v>
@@ -20742,16 +20743,16 @@
         <v>16</v>
       </c>
       <c r="R49" s="109" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="S49" s="110" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="T49" s="110" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="U49" s="108" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="V49" s="119">
         <v>1.5740000000000001</v>
@@ -20768,16 +20769,16 @@
         <v>17</v>
       </c>
       <c r="R50" s="109" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="S50" s="110" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="T50" s="110" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="U50" s="108" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="V50" s="119">
         <v>0.97899999999999998</v>
@@ -20794,16 +20795,16 @@
         <v>18</v>
       </c>
       <c r="R51" s="109" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="S51" s="110" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="T51" s="110" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="U51" s="108" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="V51" s="119">
         <v>0.96899999999999997</v>
@@ -20820,16 +20821,16 @@
         <v>19</v>
       </c>
       <c r="R52" s="141" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="S52" s="142" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="T52" s="142" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="U52" s="142" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="V52" s="147">
         <v>1.0369999999999999</v>
@@ -20841,7 +20842,7 @@
         <v>0.64300000000000002</v>
       </c>
       <c r="Y52" s="140" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="53" spans="17:26">
@@ -20849,16 +20850,16 @@
         <v>20</v>
       </c>
       <c r="R53" s="109" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="S53" s="110" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="T53" s="110" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="U53" s="108" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="V53" s="119">
         <v>0.82199999999999995</v>
@@ -20875,16 +20876,16 @@
         <v>21</v>
       </c>
       <c r="R54" s="78" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="S54" s="5" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="T54" s="5" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="U54" s="126" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="V54" s="148">
         <v>0.81899999999999995</v>
@@ -20899,7 +20900,7 @@
     <row r="57" spans="17:26">
       <c r="Q57" s="183"/>
       <c r="R57" s="164" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="S57" s="164"/>
       <c r="T57" s="158"/>
@@ -20912,22 +20913,22 @@
     </row>
     <row r="58" spans="17:26">
       <c r="Q58" s="183" t="s">
-        <v>709</v>
+        <v>687</v>
       </c>
       <c r="R58" s="112" t="str">
-        <f>B7</f>
+        <f t="shared" ref="R58:U59" si="0">B7</f>
         <v>SG_55.2_clear</v>
       </c>
       <c r="S58" s="8" t="str">
-        <f>C7</f>
+        <f t="shared" si="0"/>
         <v>Stratobel Clearlite</v>
       </c>
       <c r="T58" s="8" t="str">
-        <f>D7</f>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="U58" s="8" t="str">
-        <f>E7</f>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="V58" s="172">
@@ -20935,39 +20936,39 @@
         <v>1.563640446914828</v>
       </c>
       <c r="W58" s="172">
-        <f>G7</f>
+        <f t="shared" ref="W58:Y59" si="1">G7</f>
         <v>0.80800000000000005</v>
       </c>
       <c r="X58" s="172">
-        <f>H7</f>
+        <f t="shared" si="1"/>
         <v>0.879</v>
       </c>
       <c r="Y58" s="6" t="str">
-        <f>I7</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="Z58" s="6" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="59" spans="17:26">
       <c r="Q59" s="183" t="s">
-        <v>710</v>
+        <v>688</v>
       </c>
       <c r="R59" s="112" t="str">
-        <f>B8</f>
+        <f t="shared" si="0"/>
         <v>SG_|55.2_clear</v>
       </c>
       <c r="S59" s="8" t="str">
-        <f>C8</f>
+        <f t="shared" si="0"/>
         <v>Stratobel iplus Top 1.0</v>
       </c>
       <c r="T59" s="8" t="str">
-        <f>D8</f>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="U59" s="8" t="str">
-        <f>E8</f>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="V59" s="172">
@@ -20975,19 +20976,19 @@
         <v>1.277653635891389</v>
       </c>
       <c r="W59" s="172">
-        <f>G8</f>
+        <f t="shared" si="1"/>
         <v>0.44500000000000001</v>
       </c>
       <c r="X59" s="172">
-        <f>H8</f>
+        <f t="shared" si="1"/>
         <v>0.745</v>
       </c>
       <c r="Y59" s="6" t="str">
-        <f>I8</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="Z59" s="6" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="60" spans="17:26">
@@ -20998,7 +20999,7 @@
     <row r="61" spans="17:26">
       <c r="Q61" s="183"/>
       <c r="R61" s="164" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="S61" s="164"/>
       <c r="T61" s="158"/>
@@ -21011,22 +21012,22 @@
     </row>
     <row r="62" spans="17:26">
       <c r="Q62" s="183" t="s">
-        <v>711</v>
+        <v>689</v>
       </c>
       <c r="R62" s="112" t="str">
-        <f>B11</f>
+        <f t="shared" ref="R62:U63" si="2">B11</f>
         <v>DG_8-10-55.2_bronze</v>
       </c>
       <c r="S62" s="8" t="str">
-        <f>C11</f>
+        <f t="shared" si="2"/>
         <v>Planibel Bronze</v>
       </c>
       <c r="T62" s="8" t="str">
-        <f>D11</f>
+        <f t="shared" si="2"/>
         <v>Stratobel Clearlite</v>
       </c>
       <c r="U62" s="111" t="str">
-        <f>E11</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="V62" s="172">
@@ -21034,39 +21035,39 @@
         <v>1.205474081861758</v>
       </c>
       <c r="W62" s="172">
-        <f>G11</f>
+        <f t="shared" ref="W62:Y63" si="3">G11</f>
         <v>0.46400000000000002</v>
       </c>
       <c r="X62" s="172">
-        <f>H11</f>
+        <f t="shared" si="3"/>
         <v>0.36399999999999999</v>
       </c>
       <c r="Y62" s="6" t="str">
-        <f>I11</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="Z62" s="6" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="63" spans="17:26">
       <c r="Q63" s="183" t="s">
-        <v>712</v>
+        <v>690</v>
       </c>
       <c r="R63" s="175" t="str">
-        <f>B12</f>
+        <f t="shared" si="2"/>
         <v>DG_8-10-55.2_clear</v>
       </c>
       <c r="S63" s="153" t="str">
-        <f>C12</f>
+        <f t="shared" si="2"/>
         <v>Clear</v>
       </c>
       <c r="T63" s="153" t="str">
-        <f>D12</f>
+        <f t="shared" si="2"/>
         <v>Stratobel Clearlite</v>
       </c>
       <c r="U63" s="153" t="str">
-        <f>E12</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="V63" s="176">
@@ -21074,19 +21075,19 @@
         <v>1.205474081861758</v>
       </c>
       <c r="W63" s="176">
-        <f>G12</f>
+        <f t="shared" si="3"/>
         <v>0.69199999999999995</v>
       </c>
       <c r="X63" s="176">
-        <f>H12</f>
+        <f t="shared" si="3"/>
         <v>0.76800000000000002</v>
       </c>
       <c r="Y63" s="125" t="str">
-        <f>I12</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="Z63" s="125" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="64" spans="17:26">
@@ -21097,7 +21098,7 @@
     <row r="65" spans="17:26">
       <c r="Q65" s="183"/>
       <c r="R65" s="164" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="S65" s="165"/>
       <c r="T65" s="166"/>
@@ -21110,242 +21111,242 @@
     </row>
     <row r="66" spans="17:26">
       <c r="Q66" s="183" t="s">
-        <v>713</v>
+        <v>691</v>
       </c>
       <c r="R66" s="54" t="str">
-        <f>B15</f>
+        <f t="shared" ref="R66:U71" si="4">B15</f>
         <v>DG_8|-18Arg-55.2_</v>
       </c>
       <c r="S66" s="55" t="str">
-        <f>C15</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Sunergy Clear </v>
       </c>
       <c r="T66" s="55" t="str">
-        <f>D15</f>
+        <f t="shared" si="4"/>
         <v>Stratobel Clearlite</v>
       </c>
       <c r="U66" s="55" t="str">
-        <f>E15</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="V66" s="160">
-        <f>1/(1/F15+0.46)</f>
+        <f t="shared" ref="V66:V71" si="5">1/(1/F15+0.46)</f>
         <v>1.014727681856477</v>
       </c>
       <c r="W66" s="160">
-        <f>G15</f>
+        <f t="shared" ref="W66:Y71" si="6">G15</f>
         <v>0.49199999999999999</v>
       </c>
       <c r="X66" s="160">
-        <f>H15</f>
+        <f t="shared" si="6"/>
         <v>0.59299999999999997</v>
       </c>
       <c r="Y66" s="163" t="str">
-        <f>I15</f>
+        <f t="shared" si="6"/>
         <v>midSHG_midLT</v>
       </c>
       <c r="Z66" s="155" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="67" spans="17:26">
       <c r="Q67" s="183" t="s">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="R67" s="110" t="str">
-        <f>B16</f>
+        <f t="shared" si="4"/>
         <v>DG_8|-18Arg-55.2_</v>
       </c>
       <c r="S67" s="111" t="str">
-        <f>C16</f>
+        <f t="shared" si="4"/>
         <v>Planible top Nplus</v>
       </c>
       <c r="T67" s="111" t="str">
-        <f>D16</f>
+        <f t="shared" si="4"/>
         <v>Stratobel Clearlite</v>
       </c>
       <c r="U67" s="111" t="str">
-        <f>E16</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="V67" s="161">
-        <f>1/(1/F16+0.46)</f>
+        <f t="shared" si="5"/>
         <v>0.86982603479304144</v>
       </c>
       <c r="W67" s="161">
-        <f>G16</f>
+        <f t="shared" si="6"/>
         <v>0.53900000000000003</v>
       </c>
       <c r="X67" s="161">
-        <f>H16</f>
+        <f t="shared" si="6"/>
         <v>0.76</v>
       </c>
       <c r="Y67" s="156" t="str">
-        <f>I16</f>
+        <f t="shared" si="6"/>
         <v>midSHG_highLT</v>
       </c>
       <c r="Z67" s="156" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="68" spans="17:26">
       <c r="Q68" s="183" t="s">
-        <v>715</v>
+        <v>693</v>
       </c>
       <c r="R68" s="110" t="str">
-        <f>B17</f>
+        <f t="shared" si="4"/>
         <v>DG_8-18Arg-|55.2_</v>
       </c>
       <c r="S68" s="111" t="str">
-        <f>C17</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Clearvision </v>
       </c>
       <c r="T68" s="111" t="str">
-        <f>D17</f>
+        <f t="shared" si="4"/>
         <v>Stratobel Low-e Top N+</v>
       </c>
       <c r="U68" s="111" t="str">
-        <f>E17</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="V68" s="161">
-        <f>1/(1/F17+0.46)</f>
+        <f t="shared" si="5"/>
         <v>0.86440575868923553</v>
       </c>
       <c r="W68" s="161">
-        <f>G17</f>
+        <f t="shared" si="6"/>
         <v>0.59199999999999997</v>
       </c>
       <c r="X68" s="161">
-        <f>H17</f>
+        <f t="shared" si="6"/>
         <v>0.76800000000000002</v>
       </c>
       <c r="Y68" s="156" t="str">
-        <f>I17</f>
+        <f t="shared" si="6"/>
         <v>highSHG_highLT</v>
       </c>
       <c r="Z68" s="156" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="69" spans="17:26">
       <c r="Q69" s="183" t="s">
-        <v>716</v>
+        <v>694</v>
       </c>
       <c r="R69" s="110" t="str">
-        <f>B18</f>
+        <f t="shared" si="4"/>
         <v>DG_8|-18Arg-55.2_</v>
       </c>
       <c r="S69" s="111" t="str">
-        <f>C18</f>
+        <f t="shared" si="4"/>
         <v>Stopray Vision-72</v>
       </c>
       <c r="T69" s="111" t="str">
-        <f>D18</f>
+        <f t="shared" si="4"/>
         <v>Stratobel Clearlite</v>
       </c>
       <c r="U69" s="111" t="str">
-        <f>E18</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="V69" s="161">
-        <f>1/(1/F18+0.46)</f>
+        <f t="shared" si="5"/>
         <v>0.86258897333815898</v>
       </c>
       <c r="W69" s="161">
-        <f>G18</f>
+        <f t="shared" si="6"/>
         <v>0.34100000000000003</v>
       </c>
       <c r="X69" s="161">
-        <f>H18</f>
+        <f t="shared" si="6"/>
         <v>0.69599999999999995</v>
       </c>
       <c r="Y69" s="156" t="str">
-        <f>I18</f>
+        <f t="shared" si="6"/>
         <v>lowSHG_highLT</v>
       </c>
       <c r="Z69" s="156" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="70" spans="17:26">
       <c r="Q70" s="183" t="s">
-        <v>717</v>
+        <v>695</v>
       </c>
       <c r="R70" s="110" t="str">
-        <f>B19</f>
+        <f t="shared" si="4"/>
         <v>DG_8|-18Arg-55.2_</v>
       </c>
       <c r="S70" s="111" t="str">
-        <f>C19</f>
+        <f t="shared" si="4"/>
         <v>Stopray Vision-51T</v>
       </c>
       <c r="T70" s="111" t="str">
-        <f>D19</f>
+        <f t="shared" si="4"/>
         <v>Stratobel Clearlite</v>
       </c>
       <c r="U70" s="111" t="str">
-        <f>E19</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="V70" s="161">
-        <f>1/(1/F19+0.46)</f>
+        <f t="shared" si="5"/>
         <v>0.85342890117232573</v>
       </c>
       <c r="W70" s="161">
-        <f>G19</f>
+        <f t="shared" si="6"/>
         <v>0.248</v>
       </c>
       <c r="X70" s="161">
-        <f>H19</f>
+        <f t="shared" si="6"/>
         <v>0.49299999999999999</v>
       </c>
       <c r="Y70" s="156" t="str">
-        <f>I19</f>
+        <f t="shared" si="6"/>
         <v>lowSHG_midLT</v>
       </c>
       <c r="Z70" s="156" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="71" spans="17:26">
       <c r="Q71" s="183" t="s">
-        <v>718</v>
+        <v>696</v>
       </c>
       <c r="R71" s="5" t="str">
-        <f>B20</f>
+        <f t="shared" si="4"/>
         <v>DG_8|-18Arg-|55.2_</v>
       </c>
       <c r="S71" s="153" t="str">
-        <f>C20</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Stopray Vision-36T </v>
       </c>
       <c r="T71" s="153" t="str">
-        <f>D20</f>
+        <f t="shared" si="4"/>
         <v>Stratobel iplus Top 1.0</v>
       </c>
       <c r="U71" s="153" t="str">
-        <f>E20</f>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="V71" s="162">
-        <f>1/(1/F20+0.46)</f>
+        <f t="shared" si="5"/>
         <v>0.84898645766038106</v>
       </c>
       <c r="W71" s="162">
-        <f>G20</f>
+        <f t="shared" si="6"/>
         <v>0.183</v>
       </c>
       <c r="X71" s="162">
-        <f>H20</f>
+        <f t="shared" si="6"/>
         <v>0.30199999999999999</v>
       </c>
       <c r="Y71" s="157" t="str">
-        <f>I20</f>
+        <f t="shared" si="6"/>
         <v>lowSHG_lowLT</v>
       </c>
       <c r="Z71" s="157" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="72" spans="17:26">
@@ -21356,7 +21357,7 @@
     <row r="73" spans="17:26">
       <c r="Q73" s="183"/>
       <c r="R73" s="164" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="S73" s="165"/>
       <c r="T73" s="166"/>
@@ -21369,242 +21370,242 @@
     </row>
     <row r="74" spans="17:26">
       <c r="Q74" s="183" t="s">
-        <v>719</v>
+        <v>697</v>
       </c>
       <c r="R74" s="54" t="str">
-        <f>B23</f>
+        <f t="shared" ref="R74:U79" si="7">B23</f>
         <v>TG_8|-14Arg-6-14Arg-55.2_</v>
       </c>
       <c r="S74" s="55" t="str">
-        <f>C23</f>
+        <f t="shared" si="7"/>
         <v>Stopray Vision-72</v>
       </c>
       <c r="T74" s="55" t="str">
-        <f>D23</f>
+        <f t="shared" si="7"/>
         <v>Stratobel Clearlite</v>
       </c>
       <c r="U74" s="55" t="str">
-        <f>E23</f>
+        <f t="shared" si="7"/>
         <v>Planibel Clearvision</v>
       </c>
       <c r="V74" s="160">
-        <f>1/(1/F23+0.46)</f>
+        <f t="shared" ref="V74:V79" si="8">1/(1/F23+0.46)</f>
         <v>0.70208934205359441</v>
       </c>
       <c r="W74" s="160">
-        <f>G23</f>
+        <f t="shared" ref="W74:Y79" si="9">G23</f>
         <v>0.318</v>
       </c>
       <c r="X74" s="160">
-        <f>H23</f>
+        <f t="shared" si="9"/>
         <v>0.64300000000000002</v>
       </c>
       <c r="Y74" s="155" t="str">
-        <f>I23</f>
+        <f t="shared" si="9"/>
         <v>lowSHG_highLT</v>
       </c>
       <c r="Z74" s="155" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="75" spans="17:26">
       <c r="Q75" s="183" t="s">
-        <v>720</v>
+        <v>698</v>
       </c>
       <c r="R75" s="110" t="str">
-        <f>B24</f>
+        <f t="shared" si="7"/>
         <v>TG_8|-14Arg-6-14Arg-55.2_</v>
       </c>
       <c r="S75" s="111" t="str">
-        <f>C24</f>
+        <f t="shared" si="7"/>
         <v>Stopray Vision-51T</v>
       </c>
       <c r="T75" s="111" t="str">
-        <f>D24</f>
+        <f t="shared" si="7"/>
         <v>Stratobel Clearlite</v>
       </c>
       <c r="U75" s="111" t="str">
-        <f>E24</f>
+        <f t="shared" si="7"/>
         <v>Planibel Clearvision</v>
       </c>
       <c r="V75" s="161">
-        <f>1/(1/F24+0.46)</f>
+        <f t="shared" si="8"/>
         <v>0.69518134574048385</v>
       </c>
       <c r="W75" s="161">
-        <f>G24</f>
+        <f t="shared" si="9"/>
         <v>0.22900000000000001</v>
       </c>
       <c r="X75" s="161">
-        <f>H24</f>
+        <f t="shared" si="9"/>
         <v>0.45500000000000002</v>
       </c>
       <c r="Y75" s="156" t="str">
-        <f>I24</f>
+        <f t="shared" si="9"/>
         <v>lowSHG_midLT</v>
       </c>
       <c r="Z75" s="156" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="76" spans="17:26">
       <c r="Q76" s="183" t="s">
-        <v>721</v>
+        <v>699</v>
       </c>
       <c r="R76" s="110" t="str">
-        <f>B25</f>
+        <f t="shared" si="7"/>
         <v>TG_8-14Arg-6-14Arg-|55.2_</v>
       </c>
       <c r="S76" s="111" t="str">
-        <f>C25</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Clearvision </v>
       </c>
       <c r="T76" s="111" t="str">
-        <f>D25</f>
+        <f t="shared" si="7"/>
         <v>Stratobel Low-e Top N+</v>
       </c>
       <c r="U76" s="111" t="str">
-        <f>E25</f>
+        <f t="shared" si="7"/>
         <v>Planibel Clearvision</v>
       </c>
       <c r="V76" s="161">
-        <f>1/(1/F25+0.46)</f>
+        <f t="shared" si="8"/>
         <v>0.67548938516680457</v>
       </c>
       <c r="W76" s="161">
-        <f>G25</f>
+        <f t="shared" si="9"/>
         <v>0.55400000000000005</v>
       </c>
       <c r="X76" s="161">
-        <f>H25</f>
+        <f t="shared" si="9"/>
         <v>0.70899999999999996</v>
       </c>
       <c r="Y76" s="156" t="str">
-        <f>I25</f>
+        <f t="shared" si="9"/>
         <v>highSHG_highLT</v>
       </c>
       <c r="Z76" s="156" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="77" spans="17:26">
       <c r="Q77" s="183" t="s">
-        <v>722</v>
+        <v>700</v>
       </c>
       <c r="R77" s="110" t="str">
-        <f>B26</f>
+        <f t="shared" si="7"/>
         <v>TG_8|-14Arg-6-14Arg-|55.2_</v>
       </c>
       <c r="S77" s="111" t="str">
-        <f>C26</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Sunergy Clear </v>
       </c>
       <c r="T77" s="111" t="str">
-        <f>D26</f>
+        <f t="shared" si="7"/>
         <v>Stratobel Low-e Top N+</v>
       </c>
       <c r="U77" s="111" t="str">
-        <f>E26</f>
+        <f t="shared" si="7"/>
         <v>Planibel Clearvision</v>
       </c>
       <c r="V77" s="161">
-        <f>1/(1/F26+0.46)</f>
+        <f t="shared" si="8"/>
         <v>0.59961763513122068</v>
       </c>
       <c r="W77" s="161">
-        <f>G26</f>
+        <f t="shared" si="9"/>
         <v>0.374</v>
       </c>
       <c r="X77" s="161">
-        <f>H26</f>
+        <f t="shared" si="9"/>
         <v>0.52300000000000002</v>
       </c>
       <c r="Y77" s="156" t="str">
-        <f>I26</f>
+        <f t="shared" si="9"/>
         <v>midSHG_midLT</v>
       </c>
       <c r="Z77" s="156" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="78" spans="17:26">
       <c r="Q78" s="183" t="s">
-        <v>723</v>
+        <v>701</v>
       </c>
       <c r="R78" s="110" t="str">
-        <f>B27</f>
+        <f t="shared" si="7"/>
         <v>TG_8|-14Arg-6-14Arg-|55.2_</v>
       </c>
       <c r="S78" s="111" t="str">
-        <f>C27</f>
+        <f t="shared" si="7"/>
         <v>Planible top Nplus</v>
       </c>
       <c r="T78" s="111" t="str">
-        <f>D27</f>
+        <f t="shared" si="7"/>
         <v>Stratobel iplus Top 1.0</v>
       </c>
       <c r="U78" s="111" t="str">
-        <f>E27</f>
+        <f t="shared" si="7"/>
         <v>Planibel Clearvision</v>
       </c>
       <c r="V78" s="161">
-        <f>1/(1/F27+0.46)</f>
+        <f t="shared" si="8"/>
         <v>0.51913649788387184</v>
       </c>
       <c r="W78" s="161">
-        <f>G27</f>
+        <f t="shared" si="9"/>
         <v>0.38600000000000001</v>
       </c>
       <c r="X78" s="161">
-        <f>H27</f>
+        <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
       <c r="Y78" s="156" t="str">
-        <f>I27</f>
+        <f t="shared" si="9"/>
         <v>midSHG_highLT</v>
       </c>
       <c r="Z78" s="156" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="79" spans="17:26">
       <c r="Q79" s="183" t="s">
-        <v>724</v>
+        <v>702</v>
       </c>
       <c r="R79" s="5" t="str">
-        <f>B28</f>
+        <f t="shared" si="7"/>
         <v>TG_8|-14Arg-6-14Arg-|55.2_</v>
       </c>
       <c r="S79" s="153" t="str">
-        <f>C28</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Stopray Vision-36T </v>
       </c>
       <c r="T79" s="153" t="str">
-        <f>D28</f>
+        <f t="shared" si="7"/>
         <v>Stratobel iplus Top 1.0</v>
       </c>
       <c r="U79" s="153" t="str">
-        <f>E28</f>
+        <f t="shared" si="7"/>
         <v>Planibel Clearvision</v>
       </c>
       <c r="V79" s="162">
-        <f>1/(1/F28+0.46)</f>
+        <f t="shared" si="8"/>
         <v>0.51448810723336691</v>
       </c>
       <c r="W79" s="162">
-        <f>G28</f>
+        <f t="shared" si="9"/>
         <v>0.16400000000000001</v>
       </c>
       <c r="X79" s="162">
-        <f>H28</f>
+        <f t="shared" si="9"/>
         <v>0.28399999999999997</v>
       </c>
       <c r="Y79" s="157" t="str">
-        <f>I28</f>
+        <f t="shared" si="9"/>
         <v>lowSHG_lowLT</v>
       </c>
       <c r="Z79" s="157" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="230" spans="17:17">
@@ -22083,10 +22084,10 @@
       <c r="E3" s="59"/>
     </row>
     <row r="4" spans="2:6" s="43" customFormat="1">
-      <c r="B4" s="184" t="s">
+      <c r="B4" s="188" t="s">
         <v>285</v>
       </c>
-      <c r="C4" s="184"/>
+      <c r="C4" s="188"/>
       <c r="D4" s="60"/>
       <c r="E4" s="61"/>
       <c r="F4" s="61"/>
@@ -22207,10 +22208,10 @@
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="184" t="s">
+      <c r="B18" s="188" t="s">
         <v>297</v>
       </c>
-      <c r="C18" s="184"/>
+      <c r="C18" s="188"/>
       <c r="D18" s="60"/>
       <c r="E18" s="61"/>
       <c r="F18" s="61"/>
@@ -22233,7 +22234,7 @@
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="191" t="s">
+      <c r="B20" s="195" t="s">
         <v>67</v>
       </c>
       <c r="C20" t="s">
@@ -22250,7 +22251,7 @@
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="191"/>
+      <c r="B21" s="195"/>
       <c r="C21" t="s">
         <v>301</v>
       </c>
@@ -22262,7 +22263,7 @@
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="191"/>
+      <c r="B22" s="195"/>
       <c r="C22" t="s">
         <v>302</v>
       </c>
@@ -22424,10 +22425,10 @@
       </c>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="184" t="s">
+      <c r="B39" s="188" t="s">
         <v>149</v>
       </c>
-      <c r="C39" s="184"/>
+      <c r="C39" s="188"/>
       <c r="D39" s="60"/>
       <c r="E39" s="61"/>
       <c r="F39" s="61"/>
@@ -22674,10 +22675,10 @@
       </c>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="184" t="s">
+      <c r="B65" s="188" t="s">
         <v>314</v>
       </c>
-      <c r="C65" s="184"/>
+      <c r="C65" s="188"/>
       <c r="D65" s="60"/>
       <c r="E65" s="61"/>
       <c r="F65" s="61"/>
@@ -22800,10 +22801,10 @@
       <c r="E3" s="59"/>
     </row>
     <row r="4" spans="2:6" s="43" customFormat="1">
-      <c r="B4" s="184" t="s">
+      <c r="B4" s="188" t="s">
         <v>322</v>
       </c>
-      <c r="C4" s="184"/>
+      <c r="C4" s="188"/>
       <c r="D4" s="60"/>
       <c r="E4" s="61"/>
       <c r="F4" s="61"/>
@@ -22928,10 +22929,10 @@
       <c r="E3" s="59"/>
     </row>
     <row r="4" spans="2:6" s="43" customFormat="1">
-      <c r="B4" s="184" t="s">
+      <c r="B4" s="188" t="s">
         <v>330</v>
       </c>
-      <c r="C4" s="184"/>
+      <c r="C4" s="188"/>
       <c r="D4" s="60"/>
       <c r="E4" s="61"/>
       <c r="F4" s="61"/>
@@ -23010,10 +23011,10 @@
       <c r="E3" s="59"/>
     </row>
     <row r="4" spans="2:6" s="43" customFormat="1">
-      <c r="B4" s="184" t="s">
+      <c r="B4" s="188" t="s">
         <v>564</v>
       </c>
-      <c r="C4" s="184"/>
+      <c r="C4" s="188"/>
       <c r="D4" s="68"/>
       <c r="E4" s="61"/>
       <c r="F4" s="61"/>
@@ -23100,10 +23101,10 @@
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="184" t="s">
+      <c r="B25" s="188" t="s">
         <v>566</v>
       </c>
-      <c r="C25" s="184"/>
+      <c r="C25" s="188"/>
       <c r="D25" s="68"/>
       <c r="E25" s="61"/>
       <c r="F25" s="61"/>
@@ -23156,10 +23157,10 @@
       <c r="F1" s="73"/>
     </row>
     <row r="4" spans="2:23">
-      <c r="B4" s="184" t="s">
+      <c r="B4" s="188" t="s">
         <v>510</v>
       </c>
-      <c r="C4" s="184"/>
+      <c r="C4" s="188"/>
       <c r="D4" s="68"/>
       <c r="E4" s="61"/>
       <c r="F4" s="52"/>
@@ -23172,10 +23173,10 @@
       <c r="I4" s="43" t="s">
         <v>508</v>
       </c>
-      <c r="S4" s="184" t="s">
-        <v>678</v>
-      </c>
-      <c r="T4" s="184"/>
+      <c r="S4" s="188" t="s">
+        <v>672</v>
+      </c>
+      <c r="T4" s="188"/>
       <c r="U4" s="68"/>
       <c r="V4" s="61"/>
       <c r="W4" s="149"/>
@@ -23208,10 +23209,10 @@
         <v>35</v>
       </c>
       <c r="T6" s="50" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="U6" s="177" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="V6" s="177"/>
       <c r="W6" s="177"/>
@@ -23223,10 +23224,10 @@
       <c r="E7" s="71"/>
       <c r="F7" s="69"/>
       <c r="V7" s="72" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="W7" s="72" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="8" spans="2:23" s="72" customFormat="1">
@@ -23250,13 +23251,13 @@
       <c r="E9" s="71"/>
       <c r="F9" s="69"/>
       <c r="S9" s="72" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="T9" s="50" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="U9" s="177" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="V9" s="177"/>
       <c r="W9" s="177"/>
@@ -23274,10 +23275,10 @@
       <c r="E10" s="71"/>
       <c r="F10" s="69"/>
       <c r="V10" s="72" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="W10" s="72" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="11" spans="2:23" s="72" customFormat="1">
@@ -23298,13 +23299,13 @@
       <c r="E12" s="71"/>
       <c r="F12" s="69"/>
       <c r="S12" s="72" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="T12" s="50" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="U12" s="177" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="V12" s="177"/>
       <c r="W12" s="177"/>
@@ -23324,10 +23325,10 @@
         <v>484</v>
       </c>
       <c r="V13" s="72" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="W13" s="72" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
     </row>
     <row r="14" spans="2:23" s="72" customFormat="1">
@@ -23352,13 +23353,13 @@
       <c r="E15" s="71"/>
       <c r="F15" s="69"/>
       <c r="S15" s="72" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="T15" s="50" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="U15" s="177" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="V15" s="177"/>
       <c r="W15" s="177"/>
@@ -23376,10 +23377,10 @@
       </c>
       <c r="F16" s="69"/>
       <c r="V16" s="72" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="W16" s="72" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="17" spans="2:6" s="72" customFormat="1">
@@ -24183,10 +24184,10 @@
       </c>
     </row>
     <row r="105" spans="2:9">
-      <c r="B105" s="184" t="s">
+      <c r="B105" s="188" t="s">
         <v>486</v>
       </c>
-      <c r="C105" s="184"/>
+      <c r="C105" s="188"/>
       <c r="D105" s="68"/>
       <c r="E105" s="61"/>
       <c r="F105" s="52"/>
@@ -24347,10 +24348,10 @@
       </c>
     </row>
     <row r="120" spans="2:9">
-      <c r="B120" s="184" t="s">
+      <c r="B120" s="188" t="s">
         <v>487</v>
       </c>
-      <c r="C120" s="184"/>
+      <c r="C120" s="188"/>
       <c r="D120" s="68"/>
       <c r="E120" s="61"/>
       <c r="F120" s="52"/>
@@ -24497,10 +24498,10 @@
       </c>
     </row>
     <row r="134" spans="2:6">
-      <c r="B134" s="184" t="s">
+      <c r="B134" s="188" t="s">
         <v>370</v>
       </c>
-      <c r="C134" s="184"/>
+      <c r="C134" s="188"/>
       <c r="D134" s="68"/>
       <c r="E134" s="61"/>
       <c r="F134" s="52"/>
